--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H2">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J2">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N2">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O2">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P2">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q2">
-        <v>13.142093351904</v>
+        <v>12.47176981062667</v>
       </c>
       <c r="R2">
-        <v>118.278840167136</v>
+        <v>112.24592829564</v>
       </c>
       <c r="S2">
-        <v>0.003989867693903427</v>
+        <v>0.001552613560710416</v>
       </c>
       <c r="T2">
-        <v>0.003989867693903428</v>
+        <v>0.001552613560710416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H3">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J3">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.559931</v>
       </c>
       <c r="O3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P3">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q3">
-        <v>14.724002557234</v>
+        <v>18.282806781623</v>
       </c>
       <c r="R3">
-        <v>132.516023015106</v>
+        <v>164.545261034607</v>
       </c>
       <c r="S3">
-        <v>0.004470126680354791</v>
+        <v>0.002276030921674774</v>
       </c>
       <c r="T3">
-        <v>0.004470126680354791</v>
+        <v>0.002276030921674774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H4">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J4">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N4">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O4">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P4">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q4">
-        <v>74.69971690674933</v>
+        <v>931.8210640609633</v>
       </c>
       <c r="R4">
-        <v>672.297452160744</v>
+        <v>8386.38957654867</v>
       </c>
       <c r="S4">
-        <v>0.02267842567004678</v>
+        <v>0.1160026237001215</v>
       </c>
       <c r="T4">
-        <v>0.02267842567004679</v>
+        <v>0.1160026237001215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H5">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J5">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N5">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P5">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q5">
-        <v>1.341189431688</v>
+        <v>3.320538976494666</v>
       </c>
       <c r="R5">
-        <v>12.070704885192</v>
+        <v>29.884850788452</v>
       </c>
       <c r="S5">
-        <v>0.0004071777791870108</v>
+        <v>0.000413374679139789</v>
       </c>
       <c r="T5">
-        <v>0.0004071777791870109</v>
+        <v>0.000413374679139789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.316642</v>
+        <v>35.160799</v>
       </c>
       <c r="H6">
-        <v>84.949926</v>
+        <v>105.482397</v>
       </c>
       <c r="I6">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="J6">
-        <v>0.2382575792676785</v>
+        <v>0.2238945559395223</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N6">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O6">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P6">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q6">
-        <v>680.8817648884927</v>
+        <v>832.5947225446362</v>
       </c>
       <c r="R6">
-        <v>6127.935883996434</v>
+        <v>7493.352502901726</v>
       </c>
       <c r="S6">
-        <v>0.2067119814441865</v>
+        <v>0.1036499130778758</v>
       </c>
       <c r="T6">
-        <v>0.2067119814441865</v>
+        <v>0.1036499130778757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J7">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N7">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O7">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P7">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q7">
-        <v>14.948452992528</v>
+        <v>11.42464735409333</v>
       </c>
       <c r="R7">
-        <v>134.536076932752</v>
+        <v>102.82182618684</v>
       </c>
       <c r="S7">
-        <v>0.004538268605441051</v>
+        <v>0.001422257039509007</v>
       </c>
       <c r="T7">
-        <v>0.004538268605441052</v>
+        <v>0.001422257039509007</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J8">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.559931</v>
       </c>
       <c r="O8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P8">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q8">
         <v>16.747793079463</v>
@@ -948,10 +948,10 @@
         <v>150.730137715167</v>
       </c>
       <c r="S8">
-        <v>0.005084538418854548</v>
+        <v>0.002084936704411462</v>
       </c>
       <c r="T8">
-        <v>0.005084538418854548</v>
+        <v>0.002084936704411461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J9">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N9">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O9">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P9">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q9">
-        <v>84.96707311654534</v>
+        <v>853.5859156846968</v>
       </c>
       <c r="R9">
-        <v>764.703658048908</v>
+        <v>7682.273241162271</v>
       </c>
       <c r="S9">
-        <v>0.02579553888377455</v>
+        <v>0.1062631116551122</v>
       </c>
       <c r="T9">
-        <v>0.02579553888377455</v>
+        <v>0.1062631116551121</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I10">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J10">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N10">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P10">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q10">
-        <v>1.525533766716</v>
+        <v>3.041748477401334</v>
       </c>
       <c r="R10">
-        <v>13.729803900444</v>
+        <v>27.375736296612</v>
       </c>
       <c r="S10">
-        <v>0.0004631437114922906</v>
+        <v>0.000378667984255097</v>
       </c>
       <c r="T10">
-        <v>0.0004631437114922907</v>
+        <v>0.0003786679842550969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>96.62615700000001</v>
       </c>
       <c r="I11">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="J11">
-        <v>0.2710057011792882</v>
+        <v>0.2050965007332699</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N11">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O11">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P11">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q11">
-        <v>774.4678707848738</v>
+        <v>762.6905594302096</v>
       </c>
       <c r="R11">
-        <v>6970.210837063863</v>
+        <v>6864.215034871887</v>
       </c>
       <c r="S11">
-        <v>0.2351242115597258</v>
+        <v>0.09494752734998217</v>
       </c>
       <c r="T11">
-        <v>0.2351242115597258</v>
+        <v>0.09494752734998216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H12">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J12">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N12">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O12">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P12">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q12">
-        <v>8.827782612527997</v>
+        <v>18.27929918083556</v>
       </c>
       <c r="R12">
-        <v>79.45004351275199</v>
+        <v>164.51369262752</v>
       </c>
       <c r="S12">
-        <v>0.002680066539736229</v>
+        <v>0.002275594259626738</v>
       </c>
       <c r="T12">
-        <v>0.00268006653973623</v>
+        <v>0.002275594259626738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H13">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J13">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.559931</v>
       </c>
       <c r="O13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P13">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q13">
-        <v>9.890379734879666</v>
+        <v>26.79626870133067</v>
       </c>
       <c r="R13">
-        <v>89.013417613917</v>
+        <v>241.166418311976</v>
       </c>
       <c r="S13">
-        <v>0.003002665216870983</v>
+        <v>0.003335873800900084</v>
       </c>
       <c r="T13">
-        <v>0.003002665216870983</v>
+        <v>0.003335873800900083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H14">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I14">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J14">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N14">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O14">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P14">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q14">
-        <v>50.17715552710088</v>
+        <v>1365.727260172951</v>
       </c>
       <c r="R14">
-        <v>451.594399743908</v>
+        <v>12291.54534155656</v>
       </c>
       <c r="S14">
-        <v>0.01523351009986115</v>
+        <v>0.1700197082349663</v>
       </c>
       <c r="T14">
-        <v>0.01523351009986115</v>
+        <v>0.1700197082349663</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H15">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I15">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J15">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N15">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P15">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q15">
-        <v>0.9009012817159999</v>
+        <v>4.866761198659556</v>
       </c>
       <c r="R15">
-        <v>8.108111535443999</v>
+        <v>43.800850787936</v>
       </c>
       <c r="S15">
-        <v>0.0002735087039078214</v>
+        <v>0.0006058642476980124</v>
       </c>
       <c r="T15">
-        <v>0.0002735087039078214</v>
+        <v>0.0006058642476980123</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.02080233333333</v>
+        <v>51.53356533333334</v>
       </c>
       <c r="H16">
-        <v>57.062407</v>
+        <v>154.600696</v>
       </c>
       <c r="I16">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="J16">
-        <v>0.1600419399895302</v>
+        <v>0.3281519491717758</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N16">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O16">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P16">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q16">
-        <v>457.3606383947347</v>
+        <v>1220.295776852015</v>
       </c>
       <c r="R16">
-        <v>4116.245745552613</v>
+        <v>10982.66199166814</v>
       </c>
       <c r="S16">
-        <v>0.138852189429154</v>
+        <v>0.1519149086285847</v>
       </c>
       <c r="T16">
-        <v>0.138852189429154</v>
+        <v>0.1519149086285847</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H17">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J17">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N17">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O17">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P17">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q17">
-        <v>0.1709975799839999</v>
+        <v>0.2112488659288889</v>
       </c>
       <c r="R17">
-        <v>1.538978219856</v>
+        <v>1.90123979336</v>
       </c>
       <c r="S17">
-        <v>5.191393044054011E-05</v>
+        <v>2.629842106662561E-05</v>
       </c>
       <c r="T17">
-        <v>5.191393044054012E-05</v>
+        <v>2.62984210666256E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H18">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I18">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J18">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.559931</v>
       </c>
       <c r="O18">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P18">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q18">
-        <v>0.1915804992056667</v>
+        <v>0.3096771554686667</v>
       </c>
       <c r="R18">
-        <v>1.724224492851</v>
+        <v>2.787094399218</v>
       </c>
       <c r="S18">
-        <v>5.816279218955927E-05</v>
+        <v>3.855178201037698E-05</v>
       </c>
       <c r="T18">
-        <v>5.816279218955927E-05</v>
+        <v>3.855178201037697E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H19">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I19">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J19">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N19">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O19">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P19">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q19">
-        <v>0.9719510031248887</v>
+        <v>15.78333676939778</v>
       </c>
       <c r="R19">
-        <v>8.747559028124</v>
+        <v>142.05003092458</v>
       </c>
       <c r="S19">
-        <v>0.0002950790108992182</v>
+        <v>0.001964871311250974</v>
       </c>
       <c r="T19">
-        <v>0.0002950790108992182</v>
+        <v>0.001964871311250973</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H20">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I20">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J20">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N20">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O20">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P20">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q20">
-        <v>0.017450807948</v>
+        <v>0.05624382936088889</v>
       </c>
       <c r="R20">
-        <v>0.157057271532</v>
+        <v>0.506194464248</v>
       </c>
       <c r="S20">
-        <v>5.297969889564894E-06</v>
+        <v>7.001807562034451E-06</v>
       </c>
       <c r="T20">
-        <v>5.297969889564895E-06</v>
+        <v>7.00180756203445E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3684403333333333</v>
+        <v>0.5955593333333333</v>
       </c>
       <c r="H21">
-        <v>1.105321</v>
+        <v>1.786678</v>
       </c>
       <c r="I21">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="J21">
-        <v>0.003100074575388443</v>
+        <v>0.003792362411113143</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N21">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O21">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P21">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q21">
-        <v>8.859253311748777</v>
+        <v>14.10262485489978</v>
       </c>
       <c r="R21">
-        <v>79.733279805739</v>
+        <v>126.923623694098</v>
       </c>
       <c r="S21">
-        <v>0.002689620871969561</v>
+        <v>0.001755639089223133</v>
       </c>
       <c r="T21">
-        <v>0.002689620871969561</v>
+        <v>0.001755639089223133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H22">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I22">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J22">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4641119999999999</v>
+        <v>0.3547066666666667</v>
       </c>
       <c r="N22">
-        <v>1.392336</v>
+        <v>1.06412</v>
       </c>
       <c r="O22">
-        <v>0.0167460263222975</v>
+        <v>0.006934574868045491</v>
       </c>
       <c r="P22">
-        <v>0.0167460263222975</v>
+        <v>0.00693457486804549</v>
       </c>
       <c r="Q22">
-        <v>18.069856194192</v>
+        <v>13.31680015383111</v>
       </c>
       <c r="R22">
-        <v>162.628705747728</v>
+        <v>119.85120138448</v>
       </c>
       <c r="S22">
-        <v>0.005485909552776249</v>
+        <v>0.001657811587132704</v>
       </c>
       <c r="T22">
-        <v>0.00548590955277625</v>
+        <v>0.001657811587132704</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H23">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I23">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J23">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.559931</v>
       </c>
       <c r="O23">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="P23">
-        <v>0.01876173968565624</v>
+        <v>0.01016563762403213</v>
       </c>
       <c r="Q23">
-        <v>20.24491849874033</v>
+        <v>19.52156653456933</v>
       </c>
       <c r="R23">
-        <v>182.204266488663</v>
+        <v>175.694098811124</v>
       </c>
       <c r="S23">
-        <v>0.006146246577386356</v>
+        <v>0.002430244415035435</v>
       </c>
       <c r="T23">
-        <v>0.006146246577386356</v>
+        <v>0.002430244415035435</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H24">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I24">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J24">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.638014666666666</v>
+        <v>26.50170333333334</v>
       </c>
       <c r="N24">
-        <v>7.914044</v>
+        <v>79.50511</v>
       </c>
       <c r="O24">
-        <v>0.09518448789647083</v>
+        <v>0.5181127482682332</v>
       </c>
       <c r="P24">
-        <v>0.09518448789647084</v>
+        <v>0.5181127482682331</v>
       </c>
       <c r="Q24">
-        <v>102.7091427604458</v>
+        <v>994.9570171393823</v>
       </c>
       <c r="R24">
-        <v>924.382284844012</v>
+        <v>8954.613154254439</v>
       </c>
       <c r="S24">
-        <v>0.03118193423188911</v>
+        <v>0.1238624333667822</v>
       </c>
       <c r="T24">
-        <v>0.03118193423188912</v>
+        <v>0.1238624333667822</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H25">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I25">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J25">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.047364</v>
+        <v>0.09443866666666667</v>
       </c>
       <c r="N25">
-        <v>0.142092</v>
+        <v>0.283316</v>
       </c>
       <c r="O25">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117559</v>
       </c>
       <c r="P25">
-        <v>0.001708981432777646</v>
+        <v>0.001846291784117558</v>
       </c>
       <c r="Q25">
-        <v>1.844082180124</v>
+        <v>3.545523580407111</v>
       </c>
       <c r="R25">
-        <v>16.596739621116</v>
+        <v>31.909712223664</v>
       </c>
       <c r="S25">
-        <v>0.0005598532683009582</v>
+        <v>0.0004413830654626257</v>
       </c>
       <c r="T25">
-        <v>0.0005598532683009582</v>
+        <v>0.0004413830654626257</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.93425766666667</v>
+        <v>37.54313466666667</v>
       </c>
       <c r="H26">
-        <v>116.802773</v>
+        <v>112.629404</v>
       </c>
       <c r="I26">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="J26">
-        <v>0.3275947049881145</v>
+        <v>0.2390646317443189</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.04528633333333</v>
+        <v>23.67963033333333</v>
       </c>
       <c r="N26">
-        <v>72.135859</v>
+        <v>71.03889099999999</v>
       </c>
       <c r="O26">
-        <v>0.8675987646627978</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="P26">
-        <v>0.8675987646627977</v>
+        <v>0.4629407474555717</v>
       </c>
       <c r="Q26">
-        <v>936.1853737707786</v>
+        <v>889.0075504612182</v>
       </c>
       <c r="R26">
-        <v>8425.668363937008</v>
+        <v>8001.067954150963</v>
       </c>
       <c r="S26">
-        <v>0.2842207613577618</v>
+        <v>0.110672759309906</v>
       </c>
       <c r="T26">
-        <v>0.2842207613577618</v>
+        <v>0.110672759309906</v>
       </c>
     </row>
   </sheetData>
